--- a/biology/Médecine/Carte_de_professionnel_de_santé/Carte_de_professionnel_de_santé.xlsx
+++ b/biology/Médecine/Carte_de_professionnel_de_santé/Carte_de_professionnel_de_santé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Carte_de_professionnel_de_sant%C3%A9</t>
+          <t>Carte_de_professionnel_de_santé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La carte de professionnel de santé (CPS) est une carte à puce utilisée en France afin d'assurer la confidentialité de l’accès aux données personnelles dans le cadre des applications de santé communicantes. Elle est délivrée par l'agence du numérique en santé (ANS ex ASIP santé) à chaque professionnel de santé.
-La carte de professionnel de santé en formation (CPF) existe pour les internes, en particulier pour leurs remplacements[1]
+La carte de professionnel de santé en formation (CPF) existe pour les internes, en particulier pour leurs remplacements
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Carte_de_professionnel_de_sant%C3%A9</t>
+          <t>Carte_de_professionnel_de_santé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,15 +524,17 @@
           <t>Contenu des cartes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les cartes de professionnel de santé déployées dans le secteur santé sont des CPS3. Ces cartes contiennent :
 un certificat de signature X509 et un certificat d'authentification X509. Les certificats de chiffrement utilisés pour la sécurisation des transmissions de données par internet, sont générées par des applications tierces utilisant la CPS. Les clefs publiques (authentification, signature et chiffrements) des cartes CPx sont disponibles sur un annuaire public géré par l'ASIP santé.
 Deux volets d’information utilisés dans le contexte SESAM-Vitale :
 Des informations identifiant le professionnel de santé. La lecture est libre et l'écriture est protégée.
-Le domaine Assurance maladie (DAM) : ces données (situations d’exercices et de facturation) sont protégées par code porteur en lecture et protégées en écriture. Ce sont des informations conventionnelles et de nature financière à l’usage exclusif de l’Assurance maladie et servant à générer les feuilles de soins électroniques (FSE) avec des progiciels de facturation agréés. Ces données devraient à terme être retirées des prochaines générations de CPS et installées dans les systèmes informatiques des professionnels. C'est déjà ce qui se passe lors des situations de remplacements des professionnels de santé. Le remplaçant est doté d'une CPS munie d’un volet d’identification et d’un domaine d’Assurance maladie banalisé (c'est aussi le cas pour les professionnels exerçant en centres de santé). La FSE est constituée à partir des données de facturation du professionnel remplacé et de la CPS du remplaçant. Le 18 janvier 2003, le conseil d’administration du GIP CPS a approuvé le principe à terme de la sortie des données d’assurance maladie de la CPS qui redeviendrait alors un outil générique garantissant à la fois sécurité et confidentialité[2].
-Depuis 1998, début du programme SESAM-Vitale, la principale fonction des CPS est de « signer » les feuilles de soins électroniques (FSE) conjointement avec la carte Vitale des assurés sociaux. La base réglementaire est l'article L161-33 du Code de la Sécurité Sociale, qui précise que dans « le cas de transmission électronique par les professionnels, organismes ou établissements dispensant des actes ou prestations remboursables par l'assurance maladie, l'identification de l'émetteur, son authentification et la sécurisation des échanges sont assurées par une carte électronique individuelle, appelée carte de professionnel de santé »[3].
-Depuis la parution du « décret confidentialité » le 15 mai 2007, en application de la loi Kouchner du 4 mars 2002, cette carte est réglementairement devenue obligatoire pour les accès aux données de santé à caractère personnel[4],[5].
+Le domaine Assurance maladie (DAM) : ces données (situations d’exercices et de facturation) sont protégées par code porteur en lecture et protégées en écriture. Ce sont des informations conventionnelles et de nature financière à l’usage exclusif de l’Assurance maladie et servant à générer les feuilles de soins électroniques (FSE) avec des progiciels de facturation agréés. Ces données devraient à terme être retirées des prochaines générations de CPS et installées dans les systèmes informatiques des professionnels. C'est déjà ce qui se passe lors des situations de remplacements des professionnels de santé. Le remplaçant est doté d'une CPS munie d’un volet d’identification et d’un domaine d’Assurance maladie banalisé (c'est aussi le cas pour les professionnels exerçant en centres de santé). La FSE est constituée à partir des données de facturation du professionnel remplacé et de la CPS du remplaçant. Le 18 janvier 2003, le conseil d’administration du GIP CPS a approuvé le principe à terme de la sortie des données d’assurance maladie de la CPS qui redeviendrait alors un outil générique garantissant à la fois sécurité et confidentialité.
+Depuis 1998, début du programme SESAM-Vitale, la principale fonction des CPS est de « signer » les feuilles de soins électroniques (FSE) conjointement avec la carte Vitale des assurés sociaux. La base réglementaire est l'article L161-33 du Code de la Sécurité Sociale, qui précise que dans « le cas de transmission électronique par les professionnels, organismes ou établissements dispensant des actes ou prestations remboursables par l'assurance maladie, l'identification de l'émetteur, son authentification et la sécurisation des échanges sont assurées par une carte électronique individuelle, appelée carte de professionnel de santé ».
+Depuis la parution du « décret confidentialité » le 15 mai 2007, en application de la loi Kouchner du 4 mars 2002, cette carte est réglementairement devenue obligatoire pour les accès aux données de santé à caractère personnel,.
 </t>
         </is>
       </c>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Carte_de_professionnel_de_sant%C3%A9</t>
+          <t>Carte_de_professionnel_de_santé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'idée de la CPS est née en même temps que celle de la carte Vitale, pour les besoins du programme SESAM-Vitale afin d'être utilisées simultanément pour générer des feuilles de soins électroniques (FSE).
 En 1996 afin de permettre la qualification sur le terrain de la CPS, il y eut une diffusion de jeux de cartes Vitale 1 à Blois Onzain ainsi que sur une autre zone test de la CPS à Lens.
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Carte_de_professionnel_de_sant%C3%A9</t>
+          <t>Carte_de_professionnel_de_santé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +597,9 @@
           <t>CPS 3</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est la carte CPS actuellement déployée sur le terrain.
 Les données contenue par cette carte sont principalement :
@@ -607,7 +625,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Carte_de_professionnel_de_sant%C3%A9</t>
+          <t>Carte_de_professionnel_de_santé</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -625,7 +643,9 @@
           <t>CPS 4</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est la quatrième génération de cartes à puce. Elle permet aux médecins de verser les ordonnances sur un serveur national. Lorsque le patient se rend à la pharmacie, la carte vitale ouvre l'accès et permet au pharmacien de télécharger l'ordonnance.
 </t>
